--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3661824.92308988</v>
+        <v>3659464.698029537</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10643658.91179838</v>
+        <v>10643288.42437215</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673424</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7423878.267354835</v>
+        <v>7425293.256967464</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>314.3506961952678</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C11" t="n">
-        <v>296.8897463027948</v>
+        <v>295.2775894524737</v>
       </c>
       <c r="D11" t="n">
-        <v>214.5707497874795</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E11" t="n">
-        <v>313.547224604049</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>336.8807434231776</v>
       </c>
       <c r="G11" t="n">
-        <v>342.5385801852407</v>
+        <v>340.9264233349196</v>
       </c>
       <c r="H11" t="n">
-        <v>226.2246189191077</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.80461631996306</v>
+        <v>39.19245946964202</v>
       </c>
       <c r="T11" t="n">
-        <v>135.5348246714074</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U11" t="n">
-        <v>182.6120264906892</v>
+        <v>180.9998696403682</v>
       </c>
       <c r="V11" t="n">
-        <v>259.3691130019221</v>
+        <v>257.7569561516011</v>
       </c>
       <c r="W11" t="n">
-        <v>280.8578232492002</v>
+        <v>279.2456663988792</v>
       </c>
       <c r="X11" t="n">
-        <v>301.3479552102563</v>
+        <v>299.7357983599352</v>
       </c>
       <c r="Y11" t="n">
-        <v>317.8547931878408</v>
+        <v>240.5258533572528</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111.4488347137245</v>
+        <v>109.8366778634035</v>
       </c>
       <c r="C13" t="n">
-        <v>98.86367563041506</v>
+        <v>97.251518780094</v>
       </c>
       <c r="D13" t="n">
-        <v>80.23232754999958</v>
+        <v>78.62017069967852</v>
       </c>
       <c r="E13" t="n">
-        <v>78.0508171783564</v>
+        <v>76.43866032803534</v>
       </c>
       <c r="F13" t="n">
-        <v>77.03790255471847</v>
+        <v>75.42574570439741</v>
       </c>
       <c r="G13" t="n">
-        <v>97.64266279081545</v>
+        <v>96.03050594049439</v>
       </c>
       <c r="H13" t="n">
-        <v>76.37186944610801</v>
+        <v>74.75971259578695</v>
       </c>
       <c r="I13" t="n">
-        <v>27.96927494162532</v>
+        <v>26.35711809130427</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.54900720183456</v>
+        <v>18.9368503515135</v>
       </c>
       <c r="S13" t="n">
-        <v>121.3858798632291</v>
+        <v>119.7737230129081</v>
       </c>
       <c r="T13" t="n">
-        <v>151.1658038079564</v>
+        <v>149.5536469576354</v>
       </c>
       <c r="U13" t="n">
-        <v>217.8286927374001</v>
+        <v>216.216535887079</v>
       </c>
       <c r="V13" t="n">
-        <v>183.7544978556152</v>
+        <v>182.1423410052942</v>
       </c>
       <c r="W13" t="n">
-        <v>218.1398528683782</v>
+        <v>216.5276960180572</v>
       </c>
       <c r="X13" t="n">
-        <v>157.3265099208244</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.201507883882</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.46809054814867</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C14" t="n">
-        <v>296.8897463027948</v>
+        <v>295.2775894524736</v>
       </c>
       <c r="D14" t="n">
-        <v>286.2998961524702</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E14" t="n">
-        <v>313.547224604049</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F14" t="n">
-        <v>338.4929002734987</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>342.5385801852407</v>
+        <v>290.1553160241023</v>
       </c>
       <c r="H14" t="n">
-        <v>226.2246189191077</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.19245946964193</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>133.9226678210862</v>
       </c>
       <c r="U14" t="n">
-        <v>182.6120264906892</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V14" t="n">
-        <v>259.3691130019221</v>
+        <v>257.756956151601</v>
       </c>
       <c r="W14" t="n">
-        <v>280.8578232492002</v>
+        <v>279.2456663988791</v>
       </c>
       <c r="X14" t="n">
-        <v>301.3479552102563</v>
+        <v>299.7357983599351</v>
       </c>
       <c r="Y14" t="n">
-        <v>317.8547931878408</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.4488347137245</v>
+        <v>109.8366778634034</v>
       </c>
       <c r="C16" t="n">
-        <v>98.86367563041506</v>
+        <v>97.25151878009393</v>
       </c>
       <c r="D16" t="n">
-        <v>80.23232754999958</v>
+        <v>78.62017069967845</v>
       </c>
       <c r="E16" t="n">
-        <v>78.0508171783564</v>
+        <v>76.43866032803527</v>
       </c>
       <c r="F16" t="n">
-        <v>77.03790255471847</v>
+        <v>75.42574570439734</v>
       </c>
       <c r="G16" t="n">
-        <v>97.64266279081545</v>
+        <v>96.03050594049432</v>
       </c>
       <c r="H16" t="n">
-        <v>76.37186944610801</v>
+        <v>74.75971259578688</v>
       </c>
       <c r="I16" t="n">
-        <v>27.96927494162532</v>
+        <v>26.35711809130419</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.54900720183456</v>
+        <v>18.93685035151343</v>
       </c>
       <c r="S16" t="n">
-        <v>121.3858798632291</v>
+        <v>119.773723012908</v>
       </c>
       <c r="T16" t="n">
-        <v>151.1658038079564</v>
+        <v>149.5536469576353</v>
       </c>
       <c r="U16" t="n">
-        <v>217.8286927374001</v>
+        <v>216.2165358870789</v>
       </c>
       <c r="V16" t="n">
-        <v>183.7544978556152</v>
+        <v>182.1423410052941</v>
       </c>
       <c r="W16" t="n">
-        <v>218.1398528683782</v>
+        <v>216.5276960180571</v>
       </c>
       <c r="X16" t="n">
-        <v>157.3265099208244</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.201507883882</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.3506961952678</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C17" t="n">
-        <v>296.8897463027948</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>286.2998961524702</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E17" t="n">
-        <v>313.547224604049</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F17" t="n">
-        <v>246.1256468228484</v>
+        <v>336.8807434231775</v>
       </c>
       <c r="G17" t="n">
-        <v>342.5385801852407</v>
+        <v>340.9264233349195</v>
       </c>
       <c r="H17" t="n">
-        <v>226.2246189191077</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.80461631996307</v>
+        <v>39.19245946964195</v>
       </c>
       <c r="T17" t="n">
-        <v>135.5348246714074</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U17" t="n">
-        <v>182.6120264906892</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V17" t="n">
-        <v>259.3691130019221</v>
+        <v>165.3826948700802</v>
       </c>
       <c r="W17" t="n">
-        <v>280.8578232492002</v>
+        <v>279.2456663988791</v>
       </c>
       <c r="X17" t="n">
-        <v>301.3479552102563</v>
+        <v>299.7357983599351</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.4488347137245</v>
+        <v>109.8366778634034</v>
       </c>
       <c r="C19" t="n">
-        <v>98.86367563041506</v>
+        <v>97.25151878009393</v>
       </c>
       <c r="D19" t="n">
-        <v>80.23232754999958</v>
+        <v>78.62017069967845</v>
       </c>
       <c r="E19" t="n">
-        <v>78.0508171783564</v>
+        <v>76.43866032803527</v>
       </c>
       <c r="F19" t="n">
-        <v>77.03790255471847</v>
+        <v>75.42574570439734</v>
       </c>
       <c r="G19" t="n">
-        <v>97.64266279081545</v>
+        <v>96.03050594049432</v>
       </c>
       <c r="H19" t="n">
-        <v>76.37186944610801</v>
+        <v>74.75971259578688</v>
       </c>
       <c r="I19" t="n">
-        <v>27.96927494162534</v>
+        <v>26.35711809130421</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.54900720183457</v>
+        <v>18.93685035151344</v>
       </c>
       <c r="S19" t="n">
-        <v>121.3858798632291</v>
+        <v>119.773723012908</v>
       </c>
       <c r="T19" t="n">
-        <v>151.1658038079564</v>
+        <v>149.5536469576353</v>
       </c>
       <c r="U19" t="n">
-        <v>217.8286927374001</v>
+        <v>216.2165358870789</v>
       </c>
       <c r="V19" t="n">
-        <v>183.7544978556152</v>
+        <v>182.1423410052941</v>
       </c>
       <c r="W19" t="n">
-        <v>218.1398528683782</v>
+        <v>216.5276960180571</v>
       </c>
       <c r="X19" t="n">
-        <v>157.3265099208244</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.201507883882</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.7406760474653</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C20" t="n">
-        <v>296.8897463027948</v>
+        <v>295.2775894524736</v>
       </c>
       <c r="D20" t="n">
-        <v>286.2998961524702</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E20" t="n">
-        <v>313.547224604049</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>338.4929002734987</v>
+        <v>336.8807434231775</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5385801852407</v>
+        <v>265.2096403546529</v>
       </c>
       <c r="H20" t="n">
-        <v>226.2246189191077</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.80461631996307</v>
+        <v>39.19245946964195</v>
       </c>
       <c r="T20" t="n">
-        <v>135.5348246714074</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V20" t="n">
-        <v>259.3691130019221</v>
+        <v>257.756956151601</v>
       </c>
       <c r="W20" t="n">
-        <v>280.8578232492002</v>
+        <v>279.2456663988791</v>
       </c>
       <c r="X20" t="n">
-        <v>301.3479552102563</v>
+        <v>299.7357983599351</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.8547931878408</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.4488347137245</v>
+        <v>109.8366778634034</v>
       </c>
       <c r="C22" t="n">
-        <v>98.86367563041506</v>
+        <v>97.25151878009393</v>
       </c>
       <c r="D22" t="n">
-        <v>80.23232754999958</v>
+        <v>78.62017069967845</v>
       </c>
       <c r="E22" t="n">
-        <v>78.0508171783564</v>
+        <v>76.43866032803527</v>
       </c>
       <c r="F22" t="n">
-        <v>77.03790255471847</v>
+        <v>75.42574570439734</v>
       </c>
       <c r="G22" t="n">
-        <v>97.64266279081545</v>
+        <v>96.03050594049432</v>
       </c>
       <c r="H22" t="n">
-        <v>76.37186944610801</v>
+        <v>74.75971259578688</v>
       </c>
       <c r="I22" t="n">
-        <v>27.96927494162534</v>
+        <v>26.35711809130421</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.54900720183457</v>
+        <v>18.93685035151344</v>
       </c>
       <c r="S22" t="n">
-        <v>121.3858798632291</v>
+        <v>119.773723012908</v>
       </c>
       <c r="T22" t="n">
-        <v>151.1658038079564</v>
+        <v>149.5536469576353</v>
       </c>
       <c r="U22" t="n">
-        <v>217.8286927374001</v>
+        <v>216.2165358870789</v>
       </c>
       <c r="V22" t="n">
-        <v>183.7544978556152</v>
+        <v>182.1423410052941</v>
       </c>
       <c r="W22" t="n">
-        <v>218.1398528683782</v>
+        <v>216.5276960180571</v>
       </c>
       <c r="X22" t="n">
-        <v>157.3265099208244</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.201507883882</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.3506961952678</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C23" t="n">
-        <v>296.8897463027948</v>
+        <v>295.2775894524736</v>
       </c>
       <c r="D23" t="n">
-        <v>286.2998961524702</v>
+        <v>284.6877393021491</v>
       </c>
       <c r="E23" t="n">
-        <v>313.547224604049</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F23" t="n">
-        <v>338.4929002734987</v>
+        <v>336.8807434231775</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5385801852407</v>
+        <v>340.9264233349195</v>
       </c>
       <c r="H23" t="n">
-        <v>226.2246189191077</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.80461631996307</v>
+        <v>39.19245946964195</v>
       </c>
       <c r="T23" t="n">
-        <v>135.5348246714074</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U23" t="n">
-        <v>182.6120264906892</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V23" t="n">
-        <v>259.3691130019221</v>
+        <v>257.756956151601</v>
       </c>
       <c r="W23" t="n">
-        <v>280.8578232492002</v>
+        <v>279.2456663988791</v>
       </c>
       <c r="X23" t="n">
-        <v>301.3479552102563</v>
+        <v>299.7357983599351</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.8547931878408</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.4488347137245</v>
+        <v>109.8366778634034</v>
       </c>
       <c r="C25" t="n">
-        <v>98.86367563041506</v>
+        <v>97.25151878009393</v>
       </c>
       <c r="D25" t="n">
-        <v>80.23232754999958</v>
+        <v>78.62017069967845</v>
       </c>
       <c r="E25" t="n">
-        <v>78.0508171783564</v>
+        <v>76.43866032803527</v>
       </c>
       <c r="F25" t="n">
-        <v>77.03790255471847</v>
+        <v>75.42574570439734</v>
       </c>
       <c r="G25" t="n">
-        <v>97.64266279081545</v>
+        <v>96.03050594049432</v>
       </c>
       <c r="H25" t="n">
-        <v>76.37186944610801</v>
+        <v>74.75971259578688</v>
       </c>
       <c r="I25" t="n">
-        <v>27.96927494162534</v>
+        <v>26.35711809130421</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.54900720183457</v>
+        <v>18.93685035151344</v>
       </c>
       <c r="S25" t="n">
-        <v>121.3858798632291</v>
+        <v>119.773723012908</v>
       </c>
       <c r="T25" t="n">
-        <v>151.1658038079564</v>
+        <v>149.5536469576353</v>
       </c>
       <c r="U25" t="n">
-        <v>217.8286927374001</v>
+        <v>216.216535887079</v>
       </c>
       <c r="V25" t="n">
-        <v>183.7544978556152</v>
+        <v>182.1423410052941</v>
       </c>
       <c r="W25" t="n">
-        <v>218.1398528683782</v>
+        <v>216.5276960180571</v>
       </c>
       <c r="X25" t="n">
-        <v>157.3265099208244</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.201507883882</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.2056146609785</v>
+        <v>286.817472925892</v>
       </c>
       <c r="C35" t="n">
-        <v>267.7446647685055</v>
+        <v>269.356523033419</v>
       </c>
       <c r="D35" t="n">
-        <v>257.1548146181809</v>
+        <v>258.7666728830944</v>
       </c>
       <c r="E35" t="n">
-        <v>284.4021430697597</v>
+        <v>286.0140013346733</v>
       </c>
       <c r="F35" t="n">
-        <v>309.3478187392093</v>
+        <v>310.9596770041229</v>
       </c>
       <c r="G35" t="n">
-        <v>313.3934986509514</v>
+        <v>290.2484360486347</v>
       </c>
       <c r="H35" t="n">
-        <v>197.0795373848184</v>
+        <v>198.6913956497319</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.65953478567377</v>
+        <v>13.27139305058729</v>
       </c>
       <c r="T35" t="n">
-        <v>106.3897431371181</v>
+        <v>108.0016014020316</v>
       </c>
       <c r="U35" t="n">
-        <v>151.276039797958</v>
+        <v>155.0788032213134</v>
       </c>
       <c r="V35" t="n">
-        <v>230.2240314676328</v>
+        <v>231.8358897325463</v>
       </c>
       <c r="W35" t="n">
-        <v>251.7127417149109</v>
+        <v>253.3245999798245</v>
       </c>
       <c r="X35" t="n">
-        <v>272.2028736759669</v>
+        <v>273.8147319408805</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.7097116535515</v>
+        <v>290.321569918465</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.30375317943522</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>52.6991042806238</v>
       </c>
       <c r="E37" t="n">
-        <v>48.90573564406709</v>
+        <v>74.60496559596065</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>49.50467928534269</v>
       </c>
       <c r="G37" t="n">
-        <v>68.49758125652615</v>
+        <v>70.10943952143967</v>
       </c>
       <c r="H37" t="n">
-        <v>47.2267879118187</v>
+        <v>48.83864617673223</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.4360516722495547</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.24079832893983</v>
+        <v>93.85265659385334</v>
       </c>
       <c r="T37" t="n">
-        <v>122.0207222736671</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.6836112031108</v>
+        <v>190.2954694680243</v>
       </c>
       <c r="V37" t="n">
-        <v>195.2514223296906</v>
+        <v>156.2212745862394</v>
       </c>
       <c r="W37" t="n">
-        <v>188.9947713340889</v>
+        <v>190.6066295990024</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>129.7932866514486</v>
       </c>
       <c r="Y37" t="n">
-        <v>121.0564263495927</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.2056146609785</v>
+        <v>286.817472925892</v>
       </c>
       <c r="C38" t="n">
-        <v>267.7446647685055</v>
+        <v>269.356523033419</v>
       </c>
       <c r="D38" t="n">
-        <v>257.1548146181809</v>
+        <v>258.7666728830944</v>
       </c>
       <c r="E38" t="n">
-        <v>284.4021430697597</v>
+        <v>286.0140013346733</v>
       </c>
       <c r="F38" t="n">
-        <v>309.3478187392093</v>
+        <v>310.9596770041229</v>
       </c>
       <c r="G38" t="n">
-        <v>313.3934986509514</v>
+        <v>315.0053569158649</v>
       </c>
       <c r="H38" t="n">
-        <v>197.0795373848184</v>
+        <v>173.9344747825021</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.65953478567377</v>
+        <v>13.27139305058729</v>
       </c>
       <c r="T38" t="n">
-        <v>104.1988379786765</v>
+        <v>108.0016014020316</v>
       </c>
       <c r="U38" t="n">
-        <v>153.4669449563999</v>
+        <v>155.0788032213134</v>
       </c>
       <c r="V38" t="n">
-        <v>230.2240314676328</v>
+        <v>231.8358897325463</v>
       </c>
       <c r="W38" t="n">
-        <v>251.7127417149109</v>
+        <v>253.3245999798245</v>
       </c>
       <c r="X38" t="n">
-        <v>272.2028736759669</v>
+        <v>273.8147319408805</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.7097116535515</v>
+        <v>290.321569918465</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.30375317943522</v>
+        <v>83.91561144434874</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>71.33045236103928</v>
       </c>
       <c r="D40" t="n">
-        <v>51.08724601571028</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.90573564406709</v>
+        <v>50.51759390898061</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>49.50467928534269</v>
       </c>
       <c r="G40" t="n">
-        <v>68.49758125652615</v>
+        <v>70.10943952143967</v>
       </c>
       <c r="H40" t="n">
-        <v>47.2267879118187</v>
+        <v>79.91023393125332</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.4360516722495547</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.24079832893983</v>
+        <v>93.85265659385334</v>
       </c>
       <c r="T40" t="n">
-        <v>122.0207222736671</v>
+        <v>123.6325805385806</v>
       </c>
       <c r="U40" t="n">
-        <v>188.6836112031108</v>
+        <v>190.2954694680243</v>
       </c>
       <c r="V40" t="n">
-        <v>154.6094163213259</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>190.6066295990024</v>
       </c>
       <c r="X40" t="n">
-        <v>168.8234343948997</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>122.6682846145062</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>332.1807512795711</v>
+        <v>333.7926095444844</v>
       </c>
       <c r="C41" t="n">
-        <v>314.7198013870981</v>
+        <v>316.3316596520115</v>
       </c>
       <c r="D41" t="n">
-        <v>304.1299512367735</v>
+        <v>305.7418095016868</v>
       </c>
       <c r="E41" t="n">
-        <v>331.3772796883523</v>
+        <v>8.515118048456905</v>
       </c>
       <c r="F41" t="n">
-        <v>356.322955357802</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>360.368635269544</v>
+        <v>361.9804935344573</v>
       </c>
       <c r="H41" t="n">
-        <v>244.054674003411</v>
+        <v>245.6665322683243</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>60.24652966917974</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>154.9767380206241</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>202.0539398399059</v>
       </c>
       <c r="V41" t="n">
-        <v>277.1991680862254</v>
+        <v>278.8110263511388</v>
       </c>
       <c r="W41" t="n">
-        <v>298.6878783335035</v>
+        <v>300.2997365984169</v>
       </c>
       <c r="X41" t="n">
-        <v>319.1780102945596</v>
+        <v>320.7898685594729</v>
       </c>
       <c r="Y41" t="n">
-        <v>88.28366318837658</v>
+        <v>337.2967065370575</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>129.2788897980278</v>
+        <v>130.8907480629412</v>
       </c>
       <c r="C43" t="n">
-        <v>116.6937307147183</v>
+        <v>118.3055889796317</v>
       </c>
       <c r="D43" t="n">
-        <v>98.06238263430286</v>
+        <v>99.67424089921624</v>
       </c>
       <c r="E43" t="n">
-        <v>95.88087226265968</v>
+        <v>97.49273052757306</v>
       </c>
       <c r="F43" t="n">
-        <v>94.86795763902175</v>
+        <v>96.47981590393513</v>
       </c>
       <c r="G43" t="n">
-        <v>115.4727178751187</v>
+        <v>117.0845761400321</v>
       </c>
       <c r="H43" t="n">
-        <v>94.20192453041129</v>
+        <v>95.81378279532467</v>
       </c>
       <c r="I43" t="n">
-        <v>45.79933002592862</v>
+        <v>47.411188290842</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>38.37906228613785</v>
+        <v>39.99092055105123</v>
       </c>
       <c r="S43" t="n">
-        <v>139.2159349475324</v>
+        <v>140.8277932124458</v>
       </c>
       <c r="T43" t="n">
-        <v>168.9958588922597</v>
+        <v>170.6077171571731</v>
       </c>
       <c r="U43" t="n">
-        <v>235.6587478217034</v>
+        <v>237.2706060866167</v>
       </c>
       <c r="V43" t="n">
-        <v>201.5845529399185</v>
+        <v>203.1964112048319</v>
       </c>
       <c r="W43" t="n">
-        <v>235.9699079526815</v>
+        <v>237.5817662175949</v>
       </c>
       <c r="X43" t="n">
-        <v>175.1565650051277</v>
+        <v>176.768423270041</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.0315629681853</v>
+        <v>169.6434212330987</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.1807512795711</v>
+        <v>333.7926095444845</v>
       </c>
       <c r="C44" t="n">
-        <v>314.7198013870981</v>
+        <v>316.3316596520115</v>
       </c>
       <c r="D44" t="n">
-        <v>304.1299512367735</v>
+        <v>305.7418095016869</v>
       </c>
       <c r="E44" t="n">
-        <v>331.3772796883523</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>356.322955357802</v>
+        <v>254.1816503167794</v>
       </c>
       <c r="G44" t="n">
-        <v>360.368635269544</v>
+        <v>361.9804935344574</v>
       </c>
       <c r="H44" t="n">
-        <v>244.054674003411</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.63467140426634</v>
+        <v>60.24652966917985</v>
       </c>
       <c r="T44" t="n">
-        <v>111.3879505650363</v>
+        <v>154.9767380206241</v>
       </c>
       <c r="U44" t="n">
-        <v>200.4420815749925</v>
+        <v>202.053939839906</v>
       </c>
       <c r="V44" t="n">
-        <v>277.1991680862254</v>
+        <v>278.8110263511389</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>300.299736598417</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>320.789868559473</v>
       </c>
       <c r="Y44" t="n">
-        <v>335.6848482721441</v>
+        <v>337.2967065370576</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>129.2788897980278</v>
+        <v>130.8907480629413</v>
       </c>
       <c r="C46" t="n">
-        <v>116.6937307147183</v>
+        <v>118.3055889796318</v>
       </c>
       <c r="D46" t="n">
-        <v>98.06238263430286</v>
+        <v>99.67424089921634</v>
       </c>
       <c r="E46" t="n">
-        <v>95.88087226265968</v>
+        <v>97.49273052757316</v>
       </c>
       <c r="F46" t="n">
-        <v>94.86795763902175</v>
+        <v>96.47981590393523</v>
       </c>
       <c r="G46" t="n">
-        <v>115.4727178751187</v>
+        <v>117.0845761400322</v>
       </c>
       <c r="H46" t="n">
-        <v>94.20192453041129</v>
+        <v>95.81378279532477</v>
       </c>
       <c r="I46" t="n">
-        <v>45.79933002592862</v>
+        <v>47.4111882908421</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>38.37906228613785</v>
+        <v>39.99092055105132</v>
       </c>
       <c r="S46" t="n">
-        <v>139.2159349475324</v>
+        <v>140.8277932124459</v>
       </c>
       <c r="T46" t="n">
-        <v>168.9958588922597</v>
+        <v>170.6077171571732</v>
       </c>
       <c r="U46" t="n">
-        <v>235.6587478217034</v>
+        <v>237.2706060866168</v>
       </c>
       <c r="V46" t="n">
-        <v>201.5845529399185</v>
+        <v>203.196411204832</v>
       </c>
       <c r="W46" t="n">
-        <v>235.9699079526815</v>
+        <v>237.581766217595</v>
       </c>
       <c r="X46" t="n">
-        <v>175.1565650051277</v>
+        <v>176.7684232700411</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.0315629681853</v>
+        <v>169.6434212330988</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1474.361530370235</v>
+        <v>1563.870659443807</v>
       </c>
       <c r="C11" t="n">
-        <v>1174.47289774115</v>
+        <v>1265.610468077672</v>
       </c>
       <c r="D11" t="n">
-        <v>957.7347666426859</v>
+        <v>978.0470950451976</v>
       </c>
       <c r="E11" t="n">
-        <v>641.0203983557676</v>
+        <v>978.0470950451976</v>
       </c>
       <c r="F11" t="n">
-        <v>641.0203983557676</v>
+        <v>637.7635158298665</v>
       </c>
       <c r="G11" t="n">
-        <v>295.0218325120902</v>
+        <v>293.3933912491397</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218343</v>
@@ -5039,10 +5039,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3284.389037447593</v>
+        <v>3286.017478710543</v>
       </c>
       <c r="T11" t="n">
-        <v>3147.48517414314</v>
+        <v>3150.742056669042</v>
       </c>
       <c r="U11" t="n">
-        <v>2963.028581728303</v>
+        <v>2967.913905517155</v>
       </c>
       <c r="V11" t="n">
-        <v>2701.039578696058</v>
+        <v>2707.553343747861</v>
       </c>
       <c r="W11" t="n">
-        <v>2417.34480773727</v>
+        <v>2425.487014052023</v>
       </c>
       <c r="X11" t="n">
-        <v>2112.952933787516</v>
+        <v>2122.72358136522</v>
       </c>
       <c r="Y11" t="n">
-        <v>1791.887486123031</v>
+        <v>1879.768173933652</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5124,34 +5124,34 @@
         <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.0964902625252</v>
+        <v>596.6974014218713</v>
       </c>
       <c r="C13" t="n">
-        <v>508.2341916459443</v>
+        <v>498.4635440682409</v>
       </c>
       <c r="D13" t="n">
-        <v>427.1914365449347</v>
+        <v>419.0492302301818</v>
       </c>
       <c r="E13" t="n">
-        <v>348.3522272738676</v>
+        <v>341.8384622220653</v>
       </c>
       <c r="F13" t="n">
-        <v>270.5361640872833</v>
+        <v>265.6508402984315</v>
       </c>
       <c r="G13" t="n">
-        <v>171.9072117733282</v>
+        <v>168.650329247427</v>
       </c>
       <c r="H13" t="n">
-        <v>94.76390930251205</v>
+        <v>93.13546803956143</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1875.739312143187</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1953.349608295702</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1932.593035364556</v>
+        <v>1908.166416420297</v>
       </c>
       <c r="S13" t="n">
-        <v>1809.981035502708</v>
+        <v>1787.1828578214</v>
       </c>
       <c r="T13" t="n">
-        <v>1657.28830438356</v>
+        <v>1636.118567965203</v>
       </c>
       <c r="U13" t="n">
-        <v>1437.25932182053</v>
+        <v>1417.718026665123</v>
       </c>
       <c r="V13" t="n">
-        <v>1251.648717925969</v>
+        <v>1233.735864033513</v>
       </c>
       <c r="W13" t="n">
-        <v>1031.305432200334</v>
+        <v>1015.021019570829</v>
       </c>
       <c r="X13" t="n">
-        <v>872.3897656136429</v>
+        <v>857.7337942470879</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.6710707814389</v>
+        <v>707.6435406778344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.727234045477</v>
+        <v>1487.38906047384</v>
       </c>
       <c r="C14" t="n">
-        <v>1588.838601416392</v>
+        <v>1189.128869107705</v>
       </c>
       <c r="D14" t="n">
-        <v>1299.646787120967</v>
+        <v>901.565496075231</v>
       </c>
       <c r="E14" t="n">
-        <v>982.9324188340488</v>
+        <v>586.4795690512631</v>
       </c>
       <c r="F14" t="n">
-        <v>641.0203983557673</v>
+        <v>586.4795690512631</v>
       </c>
       <c r="G14" t="n">
-        <v>295.0218325120902</v>
+        <v>293.3933912491395</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5276,25 +5276,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3286.017478710543</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3150.742056669042</v>
       </c>
       <c r="U14" t="n">
-        <v>3141.149229194334</v>
+        <v>2967.913905517154</v>
       </c>
       <c r="V14" t="n">
-        <v>2879.16022616209</v>
+        <v>2707.553343747861</v>
       </c>
       <c r="W14" t="n">
-        <v>2595.465455203302</v>
+        <v>2425.487014052023</v>
       </c>
       <c r="X14" t="n">
-        <v>2291.073581253548</v>
+        <v>2122.72358136522</v>
       </c>
       <c r="Y14" t="n">
-        <v>1970.008133589062</v>
+        <v>1803.286574963685</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601591</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158126</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>608.0964902625252</v>
+        <v>596.6974014218707</v>
       </c>
       <c r="C16" t="n">
-        <v>508.2341916459443</v>
+        <v>498.4635440682405</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1914365449347</v>
+        <v>419.0492302301814</v>
       </c>
       <c r="E16" t="n">
-        <v>348.3522272738676</v>
+        <v>341.838462222065</v>
       </c>
       <c r="F16" t="n">
-        <v>270.5361640872833</v>
+        <v>265.6508402984313</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9072117733282</v>
+        <v>168.650329247427</v>
       </c>
       <c r="H16" t="n">
-        <v>94.76390930251205</v>
+        <v>93.1354680395614</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
@@ -5446,40 +5446,40 @@
         <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581904</v>
       </c>
       <c r="O16" t="n">
-        <v>1643.131811709527</v>
+        <v>1617.076751502317</v>
       </c>
       <c r="P16" t="n">
-        <v>1875.739312143187</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q16" t="n">
-        <v>1953.349608295702</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1932.593035364556</v>
+        <v>1908.166416420296</v>
       </c>
       <c r="S16" t="n">
-        <v>1809.981035502708</v>
+        <v>1787.182857821399</v>
       </c>
       <c r="T16" t="n">
-        <v>1657.28830438356</v>
+        <v>1636.118567965202</v>
       </c>
       <c r="U16" t="n">
-        <v>1437.25932182053</v>
+        <v>1417.718026665122</v>
       </c>
       <c r="V16" t="n">
-        <v>1251.648717925969</v>
+        <v>1233.735864033512</v>
       </c>
       <c r="W16" t="n">
-        <v>1031.305432200334</v>
+        <v>1015.021019570828</v>
       </c>
       <c r="X16" t="n">
-        <v>872.3897656136429</v>
+        <v>857.7337942470872</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.6710707814389</v>
+        <v>707.6435406778337</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1795.426978034719</v>
+        <v>1580.696395101639</v>
       </c>
       <c r="C17" t="n">
-        <v>1495.538345405634</v>
+        <v>1580.696395101639</v>
       </c>
       <c r="D17" t="n">
-        <v>1206.34653111021</v>
+        <v>1293.133022069165</v>
       </c>
       <c r="E17" t="n">
-        <v>889.6321628232913</v>
+        <v>978.0470950451971</v>
       </c>
       <c r="F17" t="n">
-        <v>641.0203983557676</v>
+        <v>637.7635158298663</v>
       </c>
       <c r="G17" t="n">
-        <v>295.0218325120902</v>
+        <v>293.3933912491395</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,25 +5513,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.389037447592</v>
+        <v>3286.017478710542</v>
       </c>
       <c r="T17" t="n">
-        <v>3147.48517414314</v>
+        <v>3150.742056669042</v>
       </c>
       <c r="U17" t="n">
-        <v>2963.028581728302</v>
+        <v>2967.913905517154</v>
       </c>
       <c r="V17" t="n">
-        <v>2701.039578696058</v>
+        <v>2800.86067837566</v>
       </c>
       <c r="W17" t="n">
-        <v>2417.34480773727</v>
+        <v>2518.794348679822</v>
       </c>
       <c r="X17" t="n">
-        <v>2112.952933787515</v>
+        <v>2216.030915993019</v>
       </c>
       <c r="Y17" t="n">
-        <v>2112.952933787515</v>
+        <v>1896.593909591484</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>608.0964902625252</v>
+        <v>596.6974014218707</v>
       </c>
       <c r="C19" t="n">
-        <v>508.2341916459443</v>
+        <v>498.4635440682405</v>
       </c>
       <c r="D19" t="n">
-        <v>427.1914365449347</v>
+        <v>419.0492302301814</v>
       </c>
       <c r="E19" t="n">
-        <v>348.3522272738676</v>
+        <v>341.838462222065</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5361640872833</v>
+        <v>265.6508402984313</v>
       </c>
       <c r="G19" t="n">
-        <v>171.9072117733282</v>
+        <v>168.650329247427</v>
       </c>
       <c r="H19" t="n">
-        <v>94.76390930251205</v>
+        <v>93.1354680395614</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5686,37 +5686,37 @@
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1875.739312143187</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1953.349608295702</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1932.593035364556</v>
+        <v>1908.166416420296</v>
       </c>
       <c r="S19" t="n">
-        <v>1809.981035502708</v>
+        <v>1787.182857821399</v>
       </c>
       <c r="T19" t="n">
-        <v>1657.28830438356</v>
+        <v>1636.118567965202</v>
       </c>
       <c r="U19" t="n">
-        <v>1437.25932182053</v>
+        <v>1417.718026665122</v>
       </c>
       <c r="V19" t="n">
-        <v>1251.648717925969</v>
+        <v>1233.735864033512</v>
       </c>
       <c r="W19" t="n">
-        <v>1031.305432200334</v>
+        <v>1015.021019570828</v>
       </c>
       <c r="X19" t="n">
-        <v>872.3897656136429</v>
+        <v>857.7337942470872</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.6710707814389</v>
+        <v>707.6435406778337</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1888.727234045479</v>
+        <v>1487.38906047384</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.838601416393</v>
+        <v>1189.128869107705</v>
       </c>
       <c r="D20" t="n">
-        <v>1299.646787120968</v>
+        <v>901.5654960752312</v>
       </c>
       <c r="E20" t="n">
-        <v>982.9324188340503</v>
+        <v>901.5654960752312</v>
       </c>
       <c r="F20" t="n">
-        <v>641.0203983557687</v>
+        <v>561.2819168599003</v>
       </c>
       <c r="G20" t="n">
-        <v>295.0218325120902</v>
+        <v>293.3933912491395</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296686</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.389037447592</v>
+        <v>3286.017478710542</v>
       </c>
       <c r="T20" t="n">
-        <v>3147.48517414314</v>
+        <v>3150.742056669041</v>
       </c>
       <c r="U20" t="n">
-        <v>3147.48517414314</v>
+        <v>2967.913905517154</v>
       </c>
       <c r="V20" t="n">
-        <v>2885.496171110895</v>
+        <v>2707.553343747861</v>
       </c>
       <c r="W20" t="n">
-        <v>2601.801400152107</v>
+        <v>2425.487014052023</v>
       </c>
       <c r="X20" t="n">
-        <v>2297.409526202353</v>
+        <v>2122.72358136522</v>
       </c>
       <c r="Y20" t="n">
-        <v>1976.344078537868</v>
+        <v>1803.286574963685</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>608.0964902625252</v>
+        <v>596.6974014218707</v>
       </c>
       <c r="C22" t="n">
-        <v>508.2341916459443</v>
+        <v>498.4635440682405</v>
       </c>
       <c r="D22" t="n">
-        <v>427.1914365449347</v>
+        <v>419.0492302301814</v>
       </c>
       <c r="E22" t="n">
-        <v>348.3522272738676</v>
+        <v>341.838462222065</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5361640872833</v>
+        <v>265.6508402984313</v>
       </c>
       <c r="G22" t="n">
-        <v>171.9072117733282</v>
+        <v>168.650329247427</v>
       </c>
       <c r="H22" t="n">
-        <v>94.76390930251205</v>
+        <v>93.1354680395614</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5917,43 +5917,43 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1875.739312143187</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>1953.349608295702</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1932.593035364556</v>
+        <v>1908.166416420296</v>
       </c>
       <c r="S22" t="n">
-        <v>1809.981035502708</v>
+        <v>1787.182857821399</v>
       </c>
       <c r="T22" t="n">
-        <v>1657.28830438356</v>
+        <v>1636.118567965202</v>
       </c>
       <c r="U22" t="n">
-        <v>1437.25932182053</v>
+        <v>1417.718026665122</v>
       </c>
       <c r="V22" t="n">
-        <v>1251.648717925969</v>
+        <v>1233.735864033512</v>
       </c>
       <c r="W22" t="n">
-        <v>1031.305432200334</v>
+        <v>1015.021019570828</v>
       </c>
       <c r="X22" t="n">
-        <v>872.3897656136429</v>
+        <v>857.7337942470872</v>
       </c>
       <c r="Y22" t="n">
-        <v>720.6710707814389</v>
+        <v>707.6435406778337</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1897.183676977626</v>
+        <v>1886.94776046765</v>
       </c>
       <c r="C23" t="n">
-        <v>1597.29504434854</v>
+        <v>1588.687569101515</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.103230053116</v>
+        <v>1301.124196069041</v>
       </c>
       <c r="E23" t="n">
-        <v>991.3888617661974</v>
+        <v>986.0382690450737</v>
       </c>
       <c r="F23" t="n">
-        <v>649.4768412879158</v>
+        <v>645.7546898297428</v>
       </c>
       <c r="G23" t="n">
-        <v>303.478275444238</v>
+        <v>301.3845652490157</v>
       </c>
       <c r="H23" t="n">
-        <v>74.96855936433123</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="I23" t="n">
-        <v>74.96855936433123</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8476903233566</v>
+        <v>263.382421391085</v>
       </c>
       <c r="K23" t="n">
-        <v>597.667064013203</v>
+        <v>597.2017950809313</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.185879666557</v>
+        <v>1048.23600832934</v>
       </c>
       <c r="M23" t="n">
-        <v>1996.598885608779</v>
+        <v>1581.767913001264</v>
       </c>
       <c r="N23" t="n">
-        <v>2543.377702667562</v>
+        <v>2309.922415300676</v>
       </c>
       <c r="O23" t="n">
-        <v>3046.350173546899</v>
+        <v>2812.894886180013</v>
       </c>
       <c r="P23" t="n">
-        <v>3441.124539904076</v>
+        <v>3207.66925253719</v>
       </c>
       <c r="Q23" t="n">
-        <v>3689.410901659759</v>
+        <v>3666.147455046178</v>
       </c>
       <c r="R23" t="n">
-        <v>3748.427968216561</v>
+        <v>3725.164521602981</v>
       </c>
       <c r="S23" t="n">
-        <v>3707.211184054982</v>
+        <v>3685.576178704353</v>
       </c>
       <c r="T23" t="n">
-        <v>3570.30732075053</v>
+        <v>3550.300756662852</v>
       </c>
       <c r="U23" t="n">
-        <v>3385.850728335693</v>
+        <v>3367.472605510965</v>
       </c>
       <c r="V23" t="n">
-        <v>3123.861725303449</v>
+        <v>3107.112043741671</v>
       </c>
       <c r="W23" t="n">
-        <v>2840.166954344661</v>
+        <v>2825.045714045834</v>
       </c>
       <c r="X23" t="n">
-        <v>2535.775080394907</v>
+        <v>2522.282281359031</v>
       </c>
       <c r="Y23" t="n">
-        <v>2214.709632730422</v>
+        <v>2202.845274957495</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0002974132564</v>
+        <v>949.5350284809848</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5472681321294</v>
+        <v>775.0819991998578</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6128584708781</v>
+        <v>626.1475895386066</v>
       </c>
       <c r="E24" t="n">
-        <v>467.3754034654227</v>
+        <v>466.9101345331511</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8408454923077</v>
+        <v>320.3755765600361</v>
       </c>
       <c r="G24" t="n">
-        <v>184.4777453249258</v>
+        <v>184.0124763926542</v>
       </c>
       <c r="H24" t="n">
-        <v>93.97585096279329</v>
+        <v>93.5105820305217</v>
       </c>
       <c r="I24" t="n">
-        <v>74.96855936433123</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6458288549485</v>
+        <v>168.1805599226769</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9100278352956</v>
+        <v>406.444758903024</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6081881479608</v>
+        <v>773.1429192156893</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.884513370277</v>
+        <v>1220.419244438005</v>
       </c>
       <c r="N24" t="n">
-        <v>1694.407556924731</v>
+        <v>1693.94228799246</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.368836342786</v>
+        <v>2104.903567410514</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.868427818888</v>
+        <v>2415.403158886617</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.509985465488</v>
+        <v>2573.044716533217</v>
       </c>
       <c r="R24" t="n">
-        <v>2573.365632058004</v>
+        <v>2572.900363125732</v>
       </c>
       <c r="S24" t="n">
-        <v>2443.927745551484</v>
+        <v>2443.462476619212</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.28474522934</v>
+        <v>2250.819476297068</v>
       </c>
       <c r="U24" t="n">
-        <v>2023.216898363755</v>
+        <v>2022.751629431484</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.064790132013</v>
+        <v>1787.599521199741</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.827433403811</v>
+        <v>1533.362164471539</v>
       </c>
       <c r="X24" t="n">
-        <v>1325.975933198278</v>
+        <v>1325.510664266007</v>
       </c>
       <c r="Y24" t="n">
-        <v>1118.215634433324</v>
+        <v>1117.750365501053</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.5529331946731</v>
+        <v>604.688575421747</v>
       </c>
       <c r="C25" t="n">
-        <v>516.6906345780922</v>
+        <v>506.4547180681168</v>
       </c>
       <c r="D25" t="n">
-        <v>435.6478794770824</v>
+        <v>427.0404042300577</v>
       </c>
       <c r="E25" t="n">
-        <v>356.8086702060153</v>
+        <v>349.8296362219413</v>
       </c>
       <c r="F25" t="n">
-        <v>278.992607019431</v>
+        <v>273.6420142983076</v>
       </c>
       <c r="G25" t="n">
-        <v>180.3636547054761</v>
+        <v>176.6415032473033</v>
       </c>
       <c r="H25" t="n">
-        <v>103.2203522346599</v>
+        <v>101.1266420394376</v>
       </c>
       <c r="I25" t="n">
-        <v>74.96855936433123</v>
+        <v>74.50329043205963</v>
       </c>
       <c r="J25" t="n">
-        <v>120.0911918112668</v>
+        <v>119.6259228789952</v>
       </c>
       <c r="K25" t="n">
-        <v>324.0783747601431</v>
+        <v>323.6131058278717</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6381732086393</v>
+        <v>640.1729042763677</v>
       </c>
       <c r="M25" t="n">
-        <v>984.7952188081882</v>
+        <v>984.3299498759166</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.203595514053</v>
+        <v>1325.738326581781</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.533194434466</v>
+        <v>1625.067925502195</v>
       </c>
       <c r="P25" t="n">
-        <v>1858.140694868125</v>
+        <v>1857.675425935854</v>
       </c>
       <c r="Q25" t="n">
-        <v>1961.80605122785</v>
+        <v>1935.285722088368</v>
       </c>
       <c r="R25" t="n">
-        <v>1941.049478296704</v>
+        <v>1916.157590420173</v>
       </c>
       <c r="S25" t="n">
-        <v>1818.437478434856</v>
+        <v>1795.174031821276</v>
       </c>
       <c r="T25" t="n">
-        <v>1665.744747315708</v>
+        <v>1644.109741965078</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.715764752678</v>
+        <v>1425.709200664999</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.105160858117</v>
+        <v>1241.727038033388</v>
       </c>
       <c r="W25" t="n">
-        <v>1039.761875132482</v>
+        <v>1023.012193570705</v>
       </c>
       <c r="X25" t="n">
-        <v>880.8462085457908</v>
+        <v>865.7249682469635</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.1275137135867</v>
+        <v>715.63471467771</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,46 +6212,46 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467792</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1326.966459396847</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
         <v>3835.976694641922</v>
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973154</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,40 +6461,40 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.30339983534</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468333</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6558,31 +6558,31 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U30" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y30" t="n">
         <v>1124.393991965682</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302704</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467776</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,52 +6698,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.011402386887</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058811</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2716.080607949975</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3219.053078829312</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521972</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.97669464192</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456135</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644865</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032353</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977798</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246648</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572829</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951504</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
@@ -6789,37 +6789,37 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302699</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6862,7 +6862,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6874,25 +6874,25 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1712.090376261906</v>
+        <v>1696.852223456099</v>
       </c>
       <c r="C35" t="n">
-        <v>1441.641219930082</v>
+        <v>1424.774927462747</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.88888193192</v>
+        <v>1163.394449803055</v>
       </c>
       <c r="E35" t="n">
-        <v>894.6139899422635</v>
+        <v>874.49141815187</v>
       </c>
       <c r="F35" t="n">
-        <v>582.1414457612439</v>
+        <v>560.3907343093216</v>
       </c>
       <c r="G35" t="n">
-        <v>265.5823562148282</v>
+        <v>267.2104958763571</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6947,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.828513744853</v>
+        <v>3312.200374083325</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.364126737663</v>
+        <v>3203.107847414606</v>
       </c>
       <c r="U35" t="n">
-        <v>3053.560046133664</v>
+        <v>3046.462591635502</v>
       </c>
       <c r="V35" t="n">
-        <v>2821.010519398682</v>
+        <v>2812.28492523899</v>
       </c>
       <c r="W35" t="n">
-        <v>2566.755224737156</v>
+        <v>2556.401490915935</v>
       </c>
       <c r="X35" t="n">
-        <v>2291.802827084664</v>
+        <v>2279.820953601914</v>
       </c>
       <c r="Y35" t="n">
-        <v>2000.17685571744</v>
+        <v>1986.566842573162</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7038,28 +7038,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>698.7479214343889</v>
+        <v>534.6330332311495</v>
       </c>
       <c r="C37" t="n">
-        <v>529.811738506482</v>
+        <v>365.6968503032426</v>
       </c>
       <c r="D37" t="n">
-        <v>379.6950990941463</v>
+        <v>312.465431837966</v>
       </c>
       <c r="E37" t="n">
-        <v>330.2953661203411</v>
+        <v>237.1068807309351</v>
       </c>
       <c r="F37" t="n">
-        <v>183.4054186224307</v>
+        <v>187.1021541800839</v>
       </c>
       <c r="G37" t="n">
-        <v>114.2159426057376</v>
+        <v>116.284538501862</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.95257266677893</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.122024523907</v>
+        <v>1832.493884862378</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.868769702021</v>
+        <v>1610.727269431904</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.279263436252</v>
+        <v>1418.509623504607</v>
       </c>
       <c r="V37" t="n">
-        <v>1323.055604517373</v>
+        <v>1260.710356245779</v>
       </c>
       <c r="W37" t="n">
-        <v>1132.151795089</v>
+        <v>1068.178407155877</v>
       </c>
       <c r="X37" t="n">
-        <v>904.1622441909828</v>
+        <v>937.0740772049194</v>
       </c>
       <c r="Y37" t="n">
-        <v>781.8830256560407</v>
+        <v>716.2814980613892</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.090376261906</v>
+        <v>1696.852223456099</v>
       </c>
       <c r="C38" t="n">
-        <v>1441.641219930082</v>
+        <v>1424.774927462747</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.88888193192</v>
+        <v>1163.394449803056</v>
       </c>
       <c r="E38" t="n">
-        <v>894.6139899422633</v>
+        <v>874.4914181518708</v>
       </c>
       <c r="F38" t="n">
-        <v>582.1414457612436</v>
+        <v>560.3907343093224</v>
       </c>
       <c r="G38" t="n">
-        <v>265.5823562148282</v>
+        <v>242.2035051013775</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
@@ -7193,31 +7193,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.828513744852</v>
+        <v>3312.200374083325</v>
       </c>
       <c r="T38" t="n">
-        <v>3208.577162251239</v>
+        <v>3203.107847414606</v>
       </c>
       <c r="U38" t="n">
-        <v>3053.560046133664</v>
+        <v>3046.462591635502</v>
       </c>
       <c r="V38" t="n">
-        <v>2821.010519398681</v>
+        <v>2812.28492523899</v>
       </c>
       <c r="W38" t="n">
-        <v>2566.755224737155</v>
+        <v>2556.401490915935</v>
       </c>
       <c r="X38" t="n">
-        <v>2291.802827084663</v>
+        <v>2279.820953601914</v>
       </c>
       <c r="Y38" t="n">
-        <v>2000.17685571744</v>
+        <v>1986.566842573162</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7269,34 +7269,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>600.2345608258009</v>
+        <v>541.6877969357365</v>
       </c>
       <c r="C40" t="n">
-        <v>431.298377897894</v>
+        <v>469.6368349548887</v>
       </c>
       <c r="D40" t="n">
-        <v>379.6950990941463</v>
+        <v>319.520195542553</v>
       </c>
       <c r="E40" t="n">
-        <v>330.2953661203411</v>
+        <v>268.492322907219</v>
       </c>
       <c r="F40" t="n">
-        <v>183.4054186224307</v>
+        <v>218.4875963563678</v>
       </c>
       <c r="G40" t="n">
-        <v>114.2159426057376</v>
+        <v>147.6699806781459</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.95257266677893</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.122024523907</v>
+        <v>1742.663427619906</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.868769702021</v>
+        <v>1617.782033136491</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.279263436252</v>
+        <v>1425.564387209194</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.108135838953</v>
+        <v>1170.879899003307</v>
       </c>
       <c r="W40" t="n">
-        <v>1074.690965801993</v>
+        <v>978.3479499134053</v>
       </c>
       <c r="X40" t="n">
-        <v>904.1622441909828</v>
+        <v>750.3583990153879</v>
       </c>
       <c r="Y40" t="n">
-        <v>683.3696650474527</v>
+        <v>626.451040818917</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1996.788173950346</v>
+        <v>1317.255159871514</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.889384670449</v>
+        <v>997.7282309300881</v>
       </c>
       <c r="D41" t="n">
-        <v>1371.687413724213</v>
+        <v>688.8981203223235</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.962888786484</v>
+        <v>680.2969909804478</v>
       </c>
       <c r="F41" t="n">
-        <v>677.0407116573908</v>
+        <v>680.2969909804478</v>
       </c>
       <c r="G41" t="n">
-        <v>313.0319891629016</v>
+        <v>314.6601288244303</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7415,10 +7415,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3264.750741135252</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3108.20858151846</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2904.113692791282</v>
       </c>
       <c r="V41" t="n">
-        <v>3045.606661926115</v>
+        <v>2622.486393446698</v>
       </c>
       <c r="W41" t="n">
-        <v>2743.901734316515</v>
+        <v>2319.153326175569</v>
       </c>
       <c r="X41" t="n">
-        <v>2421.49970371595</v>
+        <v>1995.123155913475</v>
       </c>
       <c r="Y41" t="n">
-        <v>2332.324286353954</v>
+        <v>1654.41941193665</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.1675868182049</v>
+        <v>745.5645644489057</v>
       </c>
       <c r="C43" t="n">
-        <v>616.2951315508126</v>
+        <v>626.0639695199848</v>
       </c>
       <c r="D43" t="n">
-        <v>517.2422197989915</v>
+        <v>525.382918106635</v>
       </c>
       <c r="E43" t="n">
-        <v>420.3928538771131</v>
+        <v>426.9054125232278</v>
       </c>
       <c r="F43" t="n">
-        <v>324.5666340397174</v>
+        <v>329.4510530243034</v>
       </c>
       <c r="G43" t="n">
-        <v>207.927525074951</v>
+        <v>211.1838043980084</v>
       </c>
       <c r="H43" t="n">
-        <v>112.7740659533234</v>
+        <v>114.4022056148521</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>161.6823083591893</v>
+        <v>160.0865686769251</v>
       </c>
       <c r="K43" t="n">
-        <v>415.717050788136</v>
+        <v>412.5255714236075</v>
       </c>
       <c r="L43" t="n">
-        <v>782.3244087167025</v>
+        <v>777.5371896699098</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.529013796322</v>
+        <v>1122.799297889466</v>
       </c>
       <c r="N43" t="n">
-        <v>1531.869600241956</v>
+        <v>1512.659494393137</v>
       </c>
       <c r="O43" t="n">
-        <v>1831.199199162369</v>
+        <v>1860.440913111357</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.854259076099</v>
+        <v>2141.500233342822</v>
       </c>
       <c r="Q43" t="n">
-        <v>2241.512114708684</v>
+        <v>2267.562349293143</v>
       </c>
       <c r="R43" t="n">
-        <v>2202.745385126726</v>
+        <v>2227.167480049657</v>
       </c>
       <c r="S43" t="n">
-        <v>2062.123228614068</v>
+        <v>2084.917183875469</v>
       </c>
       <c r="T43" t="n">
-        <v>1891.420340844108</v>
+        <v>1912.586156443981</v>
       </c>
       <c r="U43" t="n">
-        <v>1653.381201630266</v>
+        <v>1672.918877568611</v>
       </c>
       <c r="V43" t="n">
-        <v>1449.760441084894</v>
+        <v>1467.66997736171</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.406998708448</v>
+        <v>1227.688395323735</v>
       </c>
       <c r="X43" t="n">
-        <v>1034.481175470945</v>
+        <v>1049.134432424704</v>
       </c>
       <c r="Y43" t="n">
-        <v>864.7523239879299</v>
+        <v>877.7774412801595</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1996.788173950346</v>
+        <v>1317.255159871513</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.889384670449</v>
+        <v>997.7282309300867</v>
       </c>
       <c r="D44" t="n">
-        <v>1371.687413724213</v>
+        <v>688.8981203223219</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.962888786483</v>
+        <v>688.8981203223219</v>
       </c>
       <c r="F44" t="n">
-        <v>677.0407116573905</v>
+        <v>432.1489785882013</v>
       </c>
       <c r="G44" t="n">
-        <v>313.0319891629016</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,37 +7661,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3266.378880796779</v>
+        <v>3264.750741135252</v>
       </c>
       <c r="T44" t="n">
-        <v>3153.865799417955</v>
+        <v>3108.20858151846</v>
       </c>
       <c r="U44" t="n">
-        <v>2951.399050352306</v>
+        <v>2904.113692791282</v>
       </c>
       <c r="V44" t="n">
-        <v>2671.39989066925</v>
+        <v>2622.486393446697</v>
       </c>
       <c r="W44" t="n">
-        <v>2671.39989066925</v>
+        <v>2319.153326175569</v>
       </c>
       <c r="X44" t="n">
-        <v>2671.39989066925</v>
+        <v>1995.123155913474</v>
       </c>
       <c r="Y44" t="n">
-        <v>2332.324286353953</v>
+        <v>1654.419411936649</v>
       </c>
     </row>
     <row r="45">
@@ -7719,16 +7719,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158134</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.1675868182049</v>
+        <v>745.5645644489063</v>
       </c>
       <c r="C46" t="n">
-        <v>616.2951315508126</v>
+        <v>626.0639695199852</v>
       </c>
       <c r="D46" t="n">
-        <v>517.2422197989915</v>
+        <v>525.3829181066354</v>
       </c>
       <c r="E46" t="n">
-        <v>420.3928538771131</v>
+        <v>426.9054125232282</v>
       </c>
       <c r="F46" t="n">
-        <v>324.5666340397174</v>
+        <v>329.4510530243037</v>
       </c>
       <c r="G46" t="n">
-        <v>207.927525074951</v>
+        <v>211.1838043980085</v>
       </c>
       <c r="H46" t="n">
-        <v>112.7740659533234</v>
+        <v>114.4022056148522</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>161.6823083591893</v>
+        <v>112.7398114991284</v>
       </c>
       <c r="K46" t="n">
-        <v>415.717050788136</v>
+        <v>365.1788142458108</v>
       </c>
       <c r="L46" t="n">
-        <v>746.2090589764015</v>
+        <v>730.1904324921129</v>
       </c>
       <c r="M46" t="n">
-        <v>1090.36610457595</v>
+        <v>1122.799297889468</v>
       </c>
       <c r="N46" t="n">
-        <v>1481.822040761886</v>
+        <v>1512.659494393139</v>
       </c>
       <c r="O46" t="n">
-        <v>1831.199199162369</v>
+        <v>1860.440913111358</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.854259076099</v>
+        <v>2141.500233342823</v>
       </c>
       <c r="Q46" t="n">
-        <v>2241.512114708684</v>
+        <v>2267.562349293144</v>
       </c>
       <c r="R46" t="n">
-        <v>2202.745385126726</v>
+        <v>2227.167480049658</v>
       </c>
       <c r="S46" t="n">
-        <v>2062.123228614068</v>
+        <v>2084.91718387547</v>
       </c>
       <c r="T46" t="n">
-        <v>1891.420340844108</v>
+        <v>1912.586156443982</v>
       </c>
       <c r="U46" t="n">
-        <v>1653.381201630266</v>
+        <v>1672.918877568611</v>
       </c>
       <c r="V46" t="n">
-        <v>1449.760441084894</v>
+        <v>1467.66997736171</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.406998708448</v>
+        <v>1227.688395323736</v>
       </c>
       <c r="X46" t="n">
-        <v>1034.481175470945</v>
+        <v>1049.134432424704</v>
       </c>
       <c r="Y46" t="n">
-        <v>864.7523239879299</v>
+        <v>877.77744128016</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.3214547517356</v>
+        <v>210.4484010300662</v>
       </c>
       <c r="L8" t="n">
-        <v>221.1666787354324</v>
+        <v>223.8053436711569</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>217.0372367556174</v>
       </c>
       <c r="N8" t="n">
-        <v>212.9051825663978</v>
+        <v>215.8887136478968</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5102874732696</v>
+        <v>217.3275512705481</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>220.3335327759376</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>123.0061558296476</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>131.2928450461973</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429921</v>
+        <v>129.7489870967755</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>131.8585559843835</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>120.7942728203281</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>132.9473981283136</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>126.2303575883177</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>134.8050818600059</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.7148261097669</v>
+        <v>129.8299262077812</v>
       </c>
       <c r="M10" t="n">
-        <v>132.4205420186164</v>
+        <v>133.5962587234018</v>
       </c>
       <c r="N10" t="n">
-        <v>121.3349826493852</v>
+        <v>122.4827434387869</v>
       </c>
       <c r="O10" t="n">
-        <v>132.590766746692</v>
+        <v>133.6509096061714</v>
       </c>
       <c r="P10" t="n">
-        <v>132.7088230120157</v>
+        <v>133.6159583736387</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8900012831290951</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>183.2077628693226</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,22 +9878,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>274.8351763665428</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279889</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>167.736966642837</v>
       </c>
       <c r="N29" t="n">
-        <v>343.5485285966301</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>287.0017854473913</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>137.5908801368512</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.21022140383138</v>
+        <v>15.22694218665681</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>71.72914636499064</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F11" t="n">
-        <v>338.4929002734987</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>75.71678298026697</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.8826056471191</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>336.8807434231775</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.77110731081729</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.80461631996306</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>135.5348246714074</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>295.2775894524736</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>92.36725345065022</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>92.37426128152082</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>317.8547931878408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>227.6100201478025</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,13 +23975,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>75.7167829802666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>182.6120264906892</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>24.75692086723018</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.190905158441865</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>24.75692086722977</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.190905158441552</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25634,10 +25634,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>324.4740199048088</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>357.9348136227153</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.63467140426636</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>153.3648797557107</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>200.4420815749925</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>247.4011850837675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>332.9891379532658</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>103.753163305936</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>245.6665322683245</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>41.97692919067433</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,10 +25925,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>298.6878783335035</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>319.1780102945596</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>706330.0360576428</v>
+        <v>707220.6050833713</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>602270.0625841164</v>
+        <v>603617.5032796147</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>602270.0625841164</v>
+        <v>603617.5032796147</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>602270.0625841164</v>
+        <v>603617.5032796147</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>602270.0625841164</v>
+        <v>603617.5032796147</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>641752.8233195931</v>
+        <v>640927.9437998512</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652706.4895555971</v>
+        <v>652706.4895555972</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652706.4895555971</v>
+        <v>652706.4895555972</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>626629.5217304754</v>
+        <v>625282.3305926607</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>626629.5217304754</v>
+        <v>625282.3305926607</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>587367.7025446558</v>
+        <v>586020.5114068412</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>587367.7025446557</v>
+        <v>586020.511406841</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>819276.3387170385</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="D2" t="n">
-        <v>819283.7029994982</v>
+        <v>819282.3720251856</v>
       </c>
       <c r="E2" t="n">
-        <v>788388.0949518594</v>
+        <v>790184.6825458566</v>
       </c>
       <c r="F2" t="n">
-        <v>788388.0949518596</v>
+        <v>790184.6825458567</v>
       </c>
       <c r="G2" t="n">
-        <v>788388.0949518593</v>
+        <v>790184.6825458566</v>
       </c>
       <c r="H2" t="n">
-        <v>788388.0949518594</v>
+        <v>790184.6825458567</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="J2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642822</v>
       </c>
       <c r="K2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="L2" t="n">
-        <v>821041.769864282</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>820867.3738136707</v>
+        <v>819071.1189632518</v>
       </c>
       <c r="N2" t="n">
-        <v>820867.3738136709</v>
+        <v>819071.1189632518</v>
       </c>
       <c r="O2" t="n">
-        <v>768518.2815659118</v>
+        <v>766722.026715492</v>
       </c>
       <c r="P2" t="n">
-        <v>768518.2815659115</v>
+        <v>766722.0267154917</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19708.98312032399</v>
+        <v>16146.90488528736</v>
       </c>
       <c r="E3" t="n">
-        <v>1159985.550021719</v>
+        <v>1164616.865364196</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28109.32201199597</v>
+        <v>26562.76226526352</v>
       </c>
       <c r="J3" t="n">
-        <v>57786.73652232734</v>
+        <v>59308.42182876807</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>202042.9054122419</v>
+        <v>200753.4188003112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>434940.1570245236</v>
+        <v>436150.5999558723</v>
       </c>
       <c r="E4" t="n">
-        <v>72334.49021822971</v>
+        <v>73351.80149886702</v>
       </c>
       <c r="F4" t="n">
-        <v>72334.49021822971</v>
+        <v>73351.80149886706</v>
       </c>
       <c r="G4" t="n">
-        <v>72334.49021822971</v>
+        <v>73351.80149886708</v>
       </c>
       <c r="H4" t="n">
-        <v>72334.49021822974</v>
+        <v>73351.80149886708</v>
       </c>
       <c r="I4" t="n">
-        <v>87376.96978455909</v>
+        <v>87566.65194705539</v>
       </c>
       <c r="J4" t="n">
         <v>84858.1594017309</v>
@@ -26445,19 +26445,19 @@
         <v>84858.1594017309</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173093</v>
+        <v>84858.15940173087</v>
       </c>
       <c r="M4" t="n">
-        <v>90864.47146435876</v>
+        <v>89839.22833640961</v>
       </c>
       <c r="N4" t="n">
-        <v>90864.47146435876</v>
+        <v>89839.22833640958</v>
       </c>
       <c r="O4" t="n">
-        <v>61083.27966261024</v>
+        <v>60066.15679683055</v>
       </c>
       <c r="P4" t="n">
-        <v>61083.27966261022</v>
+        <v>60066.15679683049</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34129.29174257201</v>
+        <v>34038.61911750539</v>
       </c>
       <c r="E5" t="n">
-        <v>80055.24321776048</v>
+        <v>80190.77563201013</v>
       </c>
       <c r="F5" t="n">
-        <v>80055.24321776048</v>
+        <v>80190.77563201013</v>
       </c>
       <c r="G5" t="n">
-        <v>80055.24321776046</v>
+        <v>80190.77563201012</v>
       </c>
       <c r="H5" t="n">
-        <v>80055.24321776046</v>
+        <v>80190.77563201012</v>
       </c>
       <c r="I5" t="n">
-        <v>86482.1398461928</v>
+        <v>86264.06787191604</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.9416748061</v>
@@ -26500,16 +26500,16 @@
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82505.44107726662</v>
+        <v>82369.93376479362</v>
       </c>
       <c r="N5" t="n">
-        <v>82505.44107726662</v>
+        <v>82369.93376479362</v>
       </c>
       <c r="O5" t="n">
-        <v>78556.28831687817</v>
+        <v>78420.78100440517</v>
       </c>
       <c r="P5" t="n">
-        <v>78556.28831687817</v>
+        <v>78420.78100440517</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>343999.4887212181</v>
+        <v>343995.0751433499</v>
       </c>
       <c r="C6" t="n">
-        <v>343999.488721218</v>
+        <v>343995.0751433496</v>
       </c>
       <c r="D6" t="n">
-        <v>330505.2711120787</v>
+        <v>332941.8495719228</v>
       </c>
       <c r="E6" t="n">
-        <v>-523987.1885058499</v>
+        <v>-528051.9026675124</v>
       </c>
       <c r="F6" t="n">
-        <v>635998.3615158694</v>
+        <v>636564.9626966834</v>
       </c>
       <c r="G6" t="n">
-        <v>635998.3615158692</v>
+        <v>636564.9626966834</v>
       </c>
       <c r="H6" t="n">
-        <v>635998.3615158693</v>
+        <v>636564.9626966835</v>
       </c>
       <c r="I6" t="n">
-        <v>619073.3382215353</v>
+        <v>620648.2877800482</v>
       </c>
       <c r="J6" t="n">
-        <v>589018.9322654188</v>
+        <v>587497.2469589772</v>
       </c>
       <c r="K6" t="n">
-        <v>646805.6687877462</v>
+        <v>646805.668787746</v>
       </c>
       <c r="L6" t="n">
-        <v>646805.6687877449</v>
+        <v>646805.6687877463</v>
       </c>
       <c r="M6" t="n">
-        <v>445454.5558598035</v>
+        <v>446103.6114344848</v>
       </c>
       <c r="N6" t="n">
-        <v>647497.4612720456</v>
+        <v>646857.0302347961</v>
       </c>
       <c r="O6" t="n">
-        <v>628878.7135864234</v>
+        <v>628099.2895563843</v>
       </c>
       <c r="P6" t="n">
-        <v>628878.7135864231</v>
+        <v>628099.2895563841</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="F2" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G2" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H2" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I2" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="N2" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="O2" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="P2" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>18.85408795896302</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26808,10 +26808,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>937.1069920541403</v>
+        <v>931.2911304007453</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>50.55309038390949</v>
+        <v>48.941232118996</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>18.85408795896302</v>
       </c>
       <c r="E3" t="n">
-        <v>1066.763317906509</v>
+        <v>1070.922612634335</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>105.7055366518476</v>
+        <v>99.88967499845262</v>
       </c>
       <c r="J4" t="n">
-        <v>77.22946915447426</v>
+        <v>83.04533080786916</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.466449595971</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>338.6985632079894</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>207.5537901692484</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>5.516255594182213</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,19 +27895,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.805656436339907</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>145.1079396386282</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>207.2928835385474</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>222.7640555137178</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3395892815582</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3029630872234</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>111.8437772394622</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>88.00036312992583</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>97.63992406634992</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>170.929896929251</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.0012673095925</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9387140496599</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9569801834508</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>161.9248889332778</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>154.428027009746</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>90.95543844360957</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>18.31940585677552</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>83.31507596989097</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>175.7646648354477</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>223.4240851416062</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.8003202259747</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3171748560359</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="C11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="D11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="E11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="F11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="G11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="H11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="T11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="U11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="V11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="W11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="X11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
     </row>
     <row r="12">
@@ -28245,28 +28245,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="C13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="D13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="E13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="F13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="G13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="H13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="I13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28287,34 +28287,34 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>26.31824263354451</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="S13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="T13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="U13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="V13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="W13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="X13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.38314546821277</v>
+        <v>69.99530231853383</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="C14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="D14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="E14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="F14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="T14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="U14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="V14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="W14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="X14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
     </row>
     <row r="15">
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="C16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="D16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="E16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="F16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28518,10 +28518,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="O16" t="n">
-        <v>26.31824263354446</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28530,28 +28530,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="S16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="T16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="U16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="V16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="W16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="X16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="C17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="D17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="E17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="F17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="T17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="U17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="V17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="W17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="X17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="C19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="D19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="E19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="F19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>26.31824263354503</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="S19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="T19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="U19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="V19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="W19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="X19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="C20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="D20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="E20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="F20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="T20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="U20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="V20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="W20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="X20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="C22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="D22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="E22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="F22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>26.31824263354503</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="S22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="T22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="U22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="V22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="W22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="X22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="C23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="D23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="E23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="F23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="T23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="U23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="V23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="W23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="X23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="C25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="D25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="E25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="F25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="G25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="H25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="I25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.31824263354521</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="S25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="T25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="U25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="V25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="W25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="X25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.38314546821277</v>
+        <v>69.9953023185339</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859372</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859213</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="C35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="D35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="E35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="F35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="G35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="H35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="T35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="U35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="V35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="W35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="X35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.52822700250208</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="E37" t="n">
-        <v>97.52822700250208</v>
+        <v>71.82899705060852</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="G37" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="H37" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="T37" t="n">
-        <v>97.52822700250208</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="V37" t="n">
-        <v>56.88622099413737</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="W37" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.52822700250208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="C38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="D38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="E38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="F38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="G38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="H38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="T38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="U38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="V38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="W38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="X38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="D40" t="n">
-        <v>97.52822700250208</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="G40" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="H40" t="n">
-        <v>97.52822700250208</v>
+        <v>64.84478098306747</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="T40" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="U40" t="n">
-        <v>97.52822700250208</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="V40" t="n">
-        <v>97.52822700250208</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>95.91636873758856</v>
       </c>
       <c r="X40" t="n">
-        <v>56.88622099413746</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>95.91636873758856</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="C41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="D41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="E41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="F41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="G41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="H41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="T41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="U41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="V41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="W41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="X41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="C43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="D43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="E43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="F43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="G43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="H43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="I43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="J43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="K43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="L43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="M43" t="n">
-        <v>50.55309038390949</v>
+        <v>1.116224868694474</v>
       </c>
       <c r="N43" t="n">
-        <v>14.07293913108037</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="P43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="R43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="S43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="T43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="U43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="V43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="W43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="X43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899611</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="C44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="D44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="E44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="F44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="G44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="H44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="T44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="U44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="V44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="W44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="X44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="C46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="D46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="E46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="F46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="G46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="H46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="I46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="J46" t="n">
-        <v>50.55309038390949</v>
+        <v>1.116224868696406</v>
       </c>
       <c r="K46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="L46" t="n">
-        <v>14.07293913108015</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="N46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="O46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="P46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="R46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="S46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="T46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="U46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="V46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="W46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="X46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.55309038390949</v>
+        <v>48.94123211899601</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367558</v>
+        <v>0.07579532847824326</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887679</v>
+        <v>0.7762389077778089</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>2.922099401157476</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760344</v>
+        <v>6.433033760430305</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324494</v>
+        <v>9.641450014914343</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>11.96107129883038</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>13.30899647165534</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>13.52434994869415</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>12.77066015113862</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>10.89946297933199</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>8.185042778204897</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679516</v>
+        <v>4.761178302521452</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332509</v>
+        <v>1.72718604769797</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.33179405041351</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.00606362627825946</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0495004835149808</v>
+        <v>0.04055407598720349</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.3916669970343074</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>1.396269721489243</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246499</v>
+        <v>3.831470837019081</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>6.548593928161714</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>8.805392683098724</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>10.27547793763485</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>10.54743926300517</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>9.648846316130822</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522957</v>
+        <v>7.744049826012568</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>5.17669222601566</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>2.517910086293214</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.7532741745868713</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1634613852291228</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.002668031314947599</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.03399917500796611</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3022835741617352</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>1.02244791751229</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>2.403741673063204</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>3.950085969107334</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>5.054750073457071</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>5.329525224203268</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847949</v>
+        <v>5.202801026446307</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>4.805628845671429</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>4.112045675508917</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>2.846967281803416</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>1.528726541721821</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.5925128953661</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1452692023067642</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.001854500454979971</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33275,7 +33275,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33986,7 +33986,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34211,13 +34211,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837924</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35583,7 +35583,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>261.2753137786549</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
         <v>78.39423853789366</v>
@@ -35814,10 +35814,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675389</v>
       </c>
       <c r="O16" t="n">
-        <v>328.6713728561842</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -36051,13 +36051,13 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675397</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>261.2753137786554</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789363</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36285,7 +36285,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
@@ -36294,7 +36294,7 @@
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>261.2753137786554</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36361,13 +36361,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>539.8111171133556</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>735.5095982822338</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36534,7 +36534,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>104.7124811714388</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>730.425290758875</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.2880119162079</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629132</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>706.6580824730636</v>
       </c>
       <c r="N29" t="n">
-        <v>895.8503640095414</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>742.5918998397233</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>536.3528663562229</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,10 +37242,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302267</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37634,7 +37634,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004591</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>96.13150699697569</v>
+        <v>94.51964873206231</v>
       </c>
       <c r="K43" t="n">
-        <v>256.600749928229</v>
+        <v>254.9888916633156</v>
       </c>
       <c r="L43" t="n">
-        <v>370.3104625541076</v>
+        <v>368.6986042891942</v>
       </c>
       <c r="M43" t="n">
-        <v>398.1864697773933</v>
+        <v>348.7496042621783</v>
       </c>
       <c r="N43" t="n">
-        <v>358.9298852986204</v>
+        <v>393.7981782865361</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>351.2943623416359</v>
       </c>
       <c r="P43" t="n">
-        <v>285.5101615290199</v>
+        <v>283.8983032641065</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.9473289218031</v>
+        <v>127.3354706568897</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037194</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>96.13150699697569</v>
+        <v>46.6946414817626</v>
       </c>
       <c r="K46" t="n">
-        <v>256.600749928229</v>
+        <v>254.9888916633155</v>
       </c>
       <c r="L46" t="n">
-        <v>333.8303113012782</v>
+        <v>368.6986042891941</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>396.5746115124798</v>
       </c>
       <c r="N46" t="n">
-        <v>395.4100365514495</v>
+        <v>393.798178286536</v>
       </c>
       <c r="O46" t="n">
-        <v>352.9062206065492</v>
+        <v>351.2943623416357</v>
       </c>
       <c r="P46" t="n">
-        <v>285.5101615290199</v>
+        <v>283.8983032641064</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.9473289218031</v>
+        <v>127.3354706568896</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
